--- a/trunk/SEP/4. Testing/SystemTestCase_0.2HuyenLe.xlsx
+++ b/trunk/SEP/4. Testing/SystemTestCase_0.2HuyenLe.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Functional Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Non-Functional Test Cases" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
@@ -1399,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
